--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projeto_comparacao_de_algoritimos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto_comparacao_de_algoritimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8C57B4-52BE-4F0A-AE17-4D4FBDCF7478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E0AB2B-1698-4DF8-9191-0155AD2DA621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FD70118-392D-4325-80A5-EC84D59A7833}"/>
+    <workbookView xWindow="240" yWindow="2250" windowWidth="24210" windowHeight="11295" xr2:uid="{2FD70118-392D-4325-80A5-EC84D59A7833}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -257,6 +255,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +379,7 @@
             <c:numRef>
               <c:f>Planilha1!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>18.155999999999999</c:v>
@@ -491,7 +492,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -578,7 +579,346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7469816272965873E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18.155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420.43200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>837.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1475.7149999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4644.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-092F-4C51-BEF6-6EC51018FC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="674642712"/>
+        <c:axId val="674635824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="674642712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674635824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="674635824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674642712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1134,6 +1474,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1167,6 +2010,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0595209-E73F-CF09-692C-5A0673A55698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1475,18 +2354,19 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="25" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +2408,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1602,20 +2482,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>18.155999999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>19.431000000000001</v>
       </c>
       <c r="D3" s="2">
         <v>33253</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2">
@@ -1633,43 +2513,43 @@
       <c r="J3" s="2">
         <v>16914</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="X3" s="2">
@@ -1679,20 +2559,20 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>300000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>155.46199999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>100.32</v>
       </c>
       <c r="D4" s="2">
         <v>249130</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
@@ -1710,13 +2590,13 @@
       <c r="J4" s="2">
         <v>147295</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="2">
@@ -1728,25 +2608,25 @@
       <c r="P4" s="2">
         <v>2873</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="X4" s="2">
@@ -1756,20 +2636,20 @@
         <v>82028</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>500000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>420.43200000000002</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>446.33</v>
       </c>
       <c r="D5" s="2">
         <v>1081242</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2">
@@ -1787,13 +2667,13 @@
       <c r="J5" s="2">
         <v>360725</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="2">
@@ -1805,25 +2685,25 @@
       <c r="P5" s="2">
         <v>5219</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X5" s="2">
@@ -1833,20 +2713,20 @@
         <v>229290</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>700000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>837.13900000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>1056221</v>
+        <v>1056.221</v>
       </c>
       <c r="D6" s="2">
         <v>1512768</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
@@ -1864,13 +2744,13 @@
       <c r="J6" s="2">
         <v>631039</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="2">
@@ -1882,25 +2762,25 @@
       <c r="P6" s="2">
         <v>13526</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X6" s="2">
@@ -1910,20 +2790,20 @@
         <v>248868</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1475.7149999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>2189129</v>
+        <v>2189.1289999999999</v>
       </c>
       <c r="D7" s="2">
         <v>3015963</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2">
@@ -1941,13 +2821,13 @@
       <c r="J7" s="2">
         <v>1245335</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="2">
@@ -1959,25 +2839,25 @@
       <c r="P7" s="2">
         <v>19885</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="X7" s="2">
@@ -1987,21 +2867,21 @@
         <v>819688</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2000000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>4644.59</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f xml:space="preserve"> 7158.713</f>
         <v>7158.7129999999997</v>
       </c>
       <c r="D8" s="2">
         <v>10712453</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2">
@@ -2019,13 +2899,13 @@
       <c r="J8" s="2">
         <v>5306750</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="2">
@@ -2037,25 +2917,25 @@
       <c r="P8" s="2">
         <v>45959</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="X8" s="2">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto_comparacao_de_algoritimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E0AB2B-1698-4DF8-9191-0155AD2DA621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433EEA3-294C-4353-9351-1C425274216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2250" windowWidth="24210" windowHeight="11295" xr2:uid="{2FD70118-392D-4325-80A5-EC84D59A7833}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2FD70118-392D-4325-80A5-EC84D59A7833}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t xml:space="preserve">Crescente </t>
   </si>
@@ -59,196 +59,31 @@
     <t>aleatorio</t>
   </si>
   <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
     <t>selectionsort</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>0.033</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.071</t>
-  </si>
-  <si>
-    <t>0.150</t>
   </si>
   <si>
     <t>shellsort</t>
   </si>
   <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.030</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.069</t>
-  </si>
-  <si>
-    <t>0.145</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.894</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
     <t>mergesort</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>0.089</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>0.469</t>
   </si>
   <si>
     <t>heapsort</t>
   </si>
   <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>0.177</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.116</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.390</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
     <t>quicksort</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>0.137</t>
-  </si>
-  <si>
-    <t>0.247</t>
   </si>
   <si>
     <t>binary</t>
   </si>
   <si>
-    <t>0.011</t>
+    <t>Tamanho vetor</t>
   </si>
   <si>
-    <t>0.085</t>
+    <t>SelectionSort</t>
   </si>
   <si>
-    <t>0.213</t>
+    <t>ShellSort</t>
   </si>
 </sst>
 </file>
@@ -256,11 +91,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -275,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -283,16 +134,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,6 +265,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>BubbleSort </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -357,24 +323,53 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$B$3:$B$8</c:f>
@@ -402,10 +397,161 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E81D-4DD1-B031-3F4035A19986}"/>
+              <c16:uniqueId val="{00000000-3461-4A99-BE88-6A818F05A2E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>446.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1056.221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2189.1289999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7158.7129999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3461-4A99-BE88-6A818F05A2E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1081.242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1512.768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3015.9630000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10712.453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3461-4A99-BE88-6A818F05A2E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -417,17 +563,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="662703632"/>
-        <c:axId val="662704464"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="662703632"/>
+        <c:axId val="658765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4150527051054102"/>
+              <c:y val="0.77740667833187516"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -464,7 +675,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662704464"/>
+        <c:crossAx val="658765704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -472,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662704464"/>
+        <c:axId val="658765704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,6 +703,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -523,7 +794,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662703632"/>
+        <c:crossAx val="658765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,15 +806,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -594,6 +889,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>InsertionSort </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -625,17 +946,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7469816272965873E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.87753018372703417"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -643,6 +954,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -657,7 +971,7 @@
             <c:numRef>
               <c:f>Planilha1!$A$3:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
@@ -682,34 +996,186 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$8</c:f>
+              <c:f>Planilha1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.155999999999999</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.46199999999999</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420.43200000000002</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>837.13900000000001</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1475.7149999999999</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4644.59</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-092F-4C51-BEF6-6EC51018FC79}"/>
+              <c16:uniqueId val="{00000000-43A3-429E-9159-D89F2C92763D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1032.8979999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1611.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5406.5860000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43A3-429E-9159-D89F2C92763D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>363.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>867.149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2391.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-43A3-429E-9159-D89F2C92763D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -723,17 +1189,80 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="674642712"/>
-        <c:axId val="674635824"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="674642712"/>
+        <c:axId val="658765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45118173736347472"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -770,7 +1299,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674635824"/>
+        <c:crossAx val="658765704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674635824"/>
+        <c:axId val="658765704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +1327,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="##,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -829,7 +1416,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674642712"/>
+        <c:crossAx val="658765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,6 +1428,3808 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>SelectionSort </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>269.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>618.69500000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1297.752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5128.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5AA-4F92-8D1D-DC99F9FF52D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267.08100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1074.8420000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4371.5320000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5AA-4F92-8D1D-DC99F9FF52D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.29499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>631.03899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1245.335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5306.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5AA-4F92-8D1D-DC99F9FF52D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45386990940648547"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658765704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="##,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>ShellSort </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FEF-42C3-B576-746E755A709E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FEF-42C3-B576-746E755A709E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FEF-42C3-B576-746E755A709E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.462754212175091"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658765704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.#00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26555647277961225"/>
+          <c:y val="0.86631889763779524"/>
+          <c:w val="0.46888705444077555"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>MergeSort </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.662000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.347000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7292-4408-A7AA-E57D38A56B78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.306000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.296999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7292-4408-A7AA-E57D38A56B78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.885000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.959000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7292-4408-A7AA-E57D38A56B78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.462754212175091"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658765704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.#00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26555647277961225"/>
+          <c:y val="0.86631889763779524"/>
+          <c:w val="0.46888705444077555"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>HeapSort </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4ACC-4C59-AC7B-1F1A17EE29F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$R$3:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4ACC-4C59-AC7B-1F1A17EE29F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4ACC-4C59-AC7B-1F1A17EE29F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.462754212175091"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658765704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.#00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26555647277961225"/>
+          <c:y val="0.86631889763779524"/>
+          <c:w val="0.46888705444077555"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>QuickSort</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$T$3:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3365-4098-BA90-2F411C0DEE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$U$3:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3365-4098-BA90-2F411C0DEE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$V$3:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3365-4098-BA90-2F411C0DEE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43856066378799424"/>
+              <c:y val="0.76351778944298632"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658765704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.#00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26555647277961225"/>
+          <c:y val="0.86631889763779524"/>
+          <c:w val="0.46888705444077555"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Binary InsertionSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$W$3:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F07F-4F7C-ADDF-CBCFC1CFE33A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decrescente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$X$3:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.227499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.14100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>401.86399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>818.01199999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4701.2150000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F07F-4F7C-ADDF-CBCFC1CFE33A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aleatório</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.028000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>819.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1672.2729999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F07F-4F7C-ADDF-CBCFC1CFE33A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658765376"/>
+        <c:axId val="658765704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45118173736347472"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658765704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="##,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -958,8 +5347,248 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1067,11 +5696,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1082,11 +5706,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1118,9 +5737,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,6 +6091,3024 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1982,22 +9616,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3937E24-8672-A27B-C4A8-9E829CAD30CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C060B76D-9778-B14F-CFD0-A476F5C3D45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,27 +9651,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0595209-E73F-CF09-692C-5A0673A55698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F125A1-17AA-495F-BFBF-2160E2E7ED99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2046,6 +9682,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B0819D-6F30-4CBE-A99D-76AF1B7C8CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AA35F7-0DD7-4BB7-97CD-DCAF7259A299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1624719-8D28-42A6-8F28-6E717221CCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCB84B9-D9A1-4AB0-B36D-BE3DD8971D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C67B006-7500-4A85-8B5E-1A4D49C9BDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1015B437-15D8-4E4F-A671-610C0C9137EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2351,22 +10215,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0816CC-2C0F-47B2-80AE-E5811A75F1E5}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2378,575 +10239,630 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>100000</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>18.155999999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>19.431000000000001</v>
       </c>
-      <c r="D3" s="2">
-        <v>33253</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14538</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7266</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10948</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10706</v>
-      </c>
-      <c r="J3" s="2">
-        <v>16914</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="2">
-        <v>15612</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>4630</v>
+      <c r="D3" s="7">
+        <v>33.253</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>14.538</v>
+      </c>
+      <c r="G3" s="7">
+        <v>7.266</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10.948</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10.706</v>
+      </c>
+      <c r="J3" s="7">
+        <v>16.914000000000001</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O3" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S3" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U3" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="X3" s="6">
+        <v>15.612</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>4.63</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>300000</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>155.46199999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>100.32</v>
       </c>
-      <c r="D4" s="2">
-        <v>249130</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>130985</v>
-      </c>
-      <c r="G4" s="2">
-        <v>65830</v>
-      </c>
-      <c r="H4" s="2">
-        <v>97328</v>
-      </c>
-      <c r="I4" s="2">
-        <v>96672</v>
-      </c>
-      <c r="J4" s="2">
-        <v>147295</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2353</v>
-      </c>
-      <c r="O4" s="2">
-        <v>4320</v>
-      </c>
-      <c r="P4" s="2">
-        <v>2873</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="2">
-        <v>142275</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>82028</v>
+      <c r="D4" s="7">
+        <v>249.13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>130.98500000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>65.83</v>
+      </c>
+      <c r="H4" s="5">
+        <v>97.328000000000003</v>
+      </c>
+      <c r="I4" s="6">
+        <v>96.671999999999997</v>
+      </c>
+      <c r="J4" s="7">
+        <v>147.29499999999999</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="O4" s="6">
+        <v>4.32</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V4" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="X4" s="6">
+        <v>14.227499999999999</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>82.028000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>500000</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>420.43200000000002</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>446.33</v>
       </c>
-      <c r="D5" s="2">
-        <v>1081242</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>395038</v>
-      </c>
-      <c r="G5" s="2">
-        <v>190350</v>
-      </c>
-      <c r="H5" s="2">
-        <v>269550</v>
-      </c>
-      <c r="I5" s="2">
-        <v>267081</v>
-      </c>
-      <c r="J5" s="2">
-        <v>360725</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4899</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8330</v>
-      </c>
-      <c r="P5" s="2">
-        <v>5219</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="2">
-        <v>284141</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>229290</v>
+      <c r="D5" s="7">
+        <v>1081.242</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>395.03800000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>190.35</v>
+      </c>
+      <c r="H5" s="5">
+        <v>269.55</v>
+      </c>
+      <c r="I5" s="6">
+        <v>267.08100000000002</v>
+      </c>
+      <c r="J5" s="7">
+        <v>360.72500000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4.899</v>
+      </c>
+      <c r="O5" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="P5" s="7">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.114</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="T5" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V5" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>284.14100000000002</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>229.29</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>700000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>837.13900000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>1056.221</v>
       </c>
-      <c r="D6" s="2">
-        <v>1512768</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1032898</v>
-      </c>
-      <c r="G6" s="2">
-        <v>363232</v>
-      </c>
-      <c r="H6" s="2">
-        <v>618695</v>
-      </c>
-      <c r="I6" s="2">
-        <v>526684</v>
-      </c>
-      <c r="J6" s="2">
-        <v>631039</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2">
-        <v>8358</v>
-      </c>
-      <c r="O6" s="2">
-        <v>12872</v>
-      </c>
-      <c r="P6" s="2">
-        <v>13526</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="2">
-        <v>401864</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>248868</v>
+      <c r="D6" s="7">
+        <v>1512.768</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1032.8979999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>363.23200000000003</v>
+      </c>
+      <c r="H6" s="5">
+        <v>618.69500000000005</v>
+      </c>
+      <c r="I6" s="6">
+        <v>526.68399999999997</v>
+      </c>
+      <c r="J6" s="7">
+        <v>631.03899999999999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="N6" s="5">
+        <v>8.3580000000000005</v>
+      </c>
+      <c r="O6" s="6">
+        <v>12.872</v>
+      </c>
+      <c r="P6" s="7">
+        <v>13.526</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.183</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="T6" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V6" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <v>401.86399999999998</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>248.86799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>1000000</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1475.7149999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>2189.1289999999999</v>
       </c>
-      <c r="D7" s="2">
-        <v>3015963</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1611150</v>
-      </c>
-      <c r="G7" s="2">
-        <v>867149</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1297752</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1074842</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1245335</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2">
-        <v>14662</v>
-      </c>
-      <c r="O7" s="2">
-        <v>29306</v>
-      </c>
-      <c r="P7" s="2">
-        <v>19885</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="2">
-        <v>818012</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>819688</v>
+      <c r="D7" s="7">
+        <v>3015.9630000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1611.15</v>
+      </c>
+      <c r="G7" s="7">
+        <v>867.149</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1297.752</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1074.8420000000001</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1245.335</v>
+      </c>
+      <c r="K7" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <v>14.662000000000001</v>
+      </c>
+      <c r="O7" s="6">
+        <v>29.306000000000001</v>
+      </c>
+      <c r="P7" s="7">
+        <v>19.885000000000002</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="T7" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="U7" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="W7" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="X7" s="6">
+        <v>818.01199999999994</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>819.68799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2000000</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>4644.59</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <f xml:space="preserve"> 7158.713</f>
         <v>7158.7129999999997</v>
       </c>
-      <c r="D8" s="2">
-        <v>10712453</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="10">
+        <v>10712.453</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5406.5860000000002</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2391.596</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5128.87</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4371.5320000000002</v>
+      </c>
+      <c r="J8" s="10">
+        <v>5306.75</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="N8" s="8">
+        <v>31.347000000000001</v>
+      </c>
+      <c r="O8" s="9">
+        <v>44.296999999999997</v>
+      </c>
+      <c r="P8" s="10">
+        <v>45.959000000000003</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.435</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0.104</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0.247</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="X8" s="9">
+        <v>4701.2150000000001</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>1672.2729999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="36" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="V36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2">
-        <v>5406586</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2391596</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5128870</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4371532</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5306750</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="2">
-        <v>313470</v>
-      </c>
-      <c r="O8" s="2">
-        <v>44297</v>
-      </c>
-      <c r="P8" s="2">
-        <v>45959</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" s="2">
-        <v>4701215</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1672273</v>
-      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
@@ -2957,6 +10873,7 @@
     <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto_comparacao_de_algoritimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433EEA3-294C-4353-9351-1C425274216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098CDAA-BA56-49B2-B5B4-119214DED7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2FD70118-392D-4325-80A5-EC84D59A7833}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t xml:space="preserve">Crescente </t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>ShellSort</t>
+  </si>
+  <si>
+    <t>comparação dos alg</t>
   </si>
 </sst>
 </file>
@@ -220,9 +223,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -233,6 +233,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2950,7 +2953,7 @@
             <c:numRef>
               <c:f>Planilha1!$O$3:$O$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.1999999999999995E-2</c:v>
@@ -3026,7 +3029,7 @@
             <c:numRef>
               <c:f>Planilha1!$P$3:$P$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.9000000000000002E-2</c:v>
@@ -4769,7 +4772,7 @@
             <c:numRef>
               <c:f>Planilha1!$W$3:$W$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0999999999999999E-2</c:v>
@@ -5190,6 +5193,1147 @@
         <c:crossAx val="658765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Análise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> dos algoritmos</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BubbleSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1081.242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1512.768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3015.9630000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10712.453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60A1-4DD7-A77B-AE94F54FBAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>InsertionSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>363.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>867.149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2391.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60A1-4DD7-A77B-AE94F54FBAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SelectionSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.29499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>631.03899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1245.335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5306.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60A1-4DD7-A77B-AE94F54FBAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ShellSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-60A1-4DD7-A77B-AE94F54FBAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MergeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.885000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.959000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F0F-4AAA-AF02-39495F4058FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>HeapSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F0F-4AAA-AF02-39495F4058FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>QuickSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$V$3:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F0F-4AAA-AF02-39495F4058FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Binary InsertionSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.028000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>819.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1672.2729999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F0F-4AAA-AF02-39495F4058FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599398688"/>
+        <c:axId val="599400656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599398688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599400656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599400656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599398688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5587,6 +6731,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9592,6 +10776,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9915,6 +11615,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844826</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>69572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347869</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86DAF5D-8B38-B5C9-C178-161255BD4FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10215,10 +11951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0816CC-2C0F-47B2-80AE-E5811A75F1E5}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10228,641 +11964,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>100000</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>18.155999999999999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>19.431000000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>33.253</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>14.538</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>7.266</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>10.948</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>10.706</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>16.914000000000001</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>15.612</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>4.63</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>300000</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>155.46199999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>100.32</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>249.13</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>130.98500000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>65.83</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>97.328000000000003</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>96.671999999999997</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>147.29499999999999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0.03</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>2.3530000000000002</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>4.32</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>2.8730000000000002</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>0.11600000000000001</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>0.03</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>14.227499999999999</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>82.028000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>500000</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>420.43200000000002</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>446.33</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1081.242</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>395.03800000000001</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>190.35</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>269.55</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>267.08100000000002</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>360.72500000000002</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>0.17199999999999999</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>4.899</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>8.33</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>5.2190000000000003</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>0.11700000000000001</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.114</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>0.17299999999999999</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>284.14100000000002</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>229.29</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>700000</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>837.13900000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1056.221</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1512.768</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1032.8979999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>363.23200000000003</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>618.69500000000005</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>526.68399999999997</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>631.03899999999999</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0.05</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.23699999999999999</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>8.3580000000000005</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>12.872</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>13.526</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>0.183</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0.17699999999999999</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>0.28599999999999998</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>401.86399999999998</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>248.86799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>1000000</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1475.7149999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2189.1289999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>3015.9630000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1611.15</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>867.149</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>1297.752</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>1074.8420000000001</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>1245.335</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>0.39300000000000002</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>14.662000000000001</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>29.306000000000001</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>19.885000000000002</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>0.23699999999999999</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>0.39</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>0.13700000000000001</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>818.01199999999994</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>819.68799999999999</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>2000000</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>4644.59</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f xml:space="preserve"> 7158.713</f>
         <v>7158.7129999999997</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>10712.453</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>5406.5860000000002</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>2391.596</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>5128.87</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>4371.5320000000002</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>5306.75</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0.15</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>0.14499999999999999</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>31.347000000000001</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>44.296999999999997</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>45.959000000000003</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>0.46899999999999997</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>0.435</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <v>0.69799999999999995</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <v>0.107</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="8">
         <v>0.104</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>0.247</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <v>0.21299999999999999</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="8">
         <v>4701.2150000000001</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <v>1672.2729999999999</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="P13" s="1" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="U13" s="1" t="s">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="U13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="36" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="I36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="P36" s="1" t="s">
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="P36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="V36" s="1" t="s">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="V36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+    </row>
+    <row r="57" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="U13:W13"/>
+  <mergeCells count="17">
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D57:F57"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
@@ -10871,6 +12608,13 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto_comparacao_de_algoritimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098CDAA-BA56-49B2-B5B4-119214DED7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1EE01-B15A-4CAE-844D-44D1A92C0E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2FD70118-392D-4325-80A5-EC84D59A7833}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t xml:space="preserve">Crescente </t>
   </si>
@@ -88,6 +88,9 @@
   <si>
     <t>comparação dos alg</t>
   </si>
+  <si>
+    <t>melhores</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +118,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -221,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,6 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,6 +812,686 @@
         <c:crossAx val="658765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Análise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> dos algoritmos</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ShellSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B69D-42C4-914A-151DEBC84DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HeapSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B69D-42C4-914A-151DEBC84DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>QuickSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$V$3:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B69D-42C4-914A-151DEBC84DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599398688"/>
+        <c:axId val="599400656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599398688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho Vetor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599400656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599400656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599398688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6060,7 +6752,7 @@
             <c:numRef>
               <c:f>Planilha1!$Y$3:$Y$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.63</c:v>
@@ -6451,6 +7143,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7255,6 +7987,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11651,6 +12899,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>720586</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>170623</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5760D2-DDE2-4923-B236-4F461602FA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11953,8 +13239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0816CC-2C0F-47B2-80AE-E5811A75F1E5}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12589,15 +13875,19 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="57" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:11" ht="21" x14ac:dyDescent="0.35">
       <c r="D57" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
+      <c r="K57" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="T1:V1"/>
@@ -12614,7 +13904,6 @@
     <mergeCell ref="V36:X36"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="P13:R13"/>
-    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
